--- a/Intensivao janeiro 2023/Aula 3 - Automacao web/Produtos atualizados.xlsx
+++ b/Intensivao janeiro 2023/Aula 3 - Automacao web/Produtos atualizados.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.096</v>
+        <v>5.0877</v>
       </c>
       <c r="E2" t="n">
-        <v>5095.94904</v>
+        <v>5087.649123</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7134.328656000001</v>
+        <v>7122.7087722</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.528395600000001</v>
+        <v>5.511785233</v>
       </c>
       <c r="E3" t="n">
-        <v>24877.7802</v>
+        <v>24803.0335485</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>49755.5604</v>
+        <v>49606.06709700001</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.096</v>
+        <v>5.0877</v>
       </c>
       <c r="E4" t="n">
-        <v>4586.34904</v>
+        <v>4578.879123</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7796.793368</v>
+        <v>7784.094509099999</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.096</v>
+        <v>5.0877</v>
       </c>
       <c r="E5" t="n">
-        <v>4071.704</v>
+        <v>4065.0723</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>6921.8968</v>
+        <v>6910.622909999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.528395600000001</v>
+        <v>5.511785233</v>
       </c>
       <c r="E6" t="n">
-        <v>16585.1868</v>
+        <v>16535.355699</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>31511.85492000001</v>
+        <v>31417.1758281</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.096</v>
+        <v>5.0877</v>
       </c>
       <c r="E7" t="n">
-        <v>2448.52608</v>
+        <v>2444.538096</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4897.05216</v>
+        <v>4889.076192</v>
       </c>
     </row>
     <row r="8">

--- a/Intensivao janeiro 2023/Aula 3 - Automacao web/Produtos atualizados.xlsx
+++ b/Intensivao janeiro 2023/Aula 3 - Automacao web/Produtos atualizados.xlsx
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.511785233</v>
+        <v>5.51252295</v>
       </c>
       <c r="E3" t="n">
-        <v>24803.0335485</v>
+        <v>24806.353275</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>49606.06709700001</v>
+        <v>49612.70655</v>
       </c>
     </row>
     <row r="4">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.511785233</v>
+        <v>5.51252295</v>
       </c>
       <c r="E6" t="n">
-        <v>16535.355699</v>
+        <v>16537.56885</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>31417.1758281</v>
+        <v>31421.380815</v>
       </c>
     </row>
     <row r="7">
